--- a/Core/m5core_m5stick_comparison.xlsx
+++ b/Core/m5core_m5stick_comparison.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\github_code\M5-Schematic\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E7A4268-51C8-427B-8AEC-186E1BB7273A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8BC92E-838D-4C2A-ADF8-332B10ECD3B5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" xr2:uid="{ED51595E-8D0F-4399-B696-3896153647AE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t>80mAh</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,10 @@
   </si>
   <si>
     <t>1 ( GPIO 25, 13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150mAh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -191,6 +195,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -639,7 +644,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -841,10 +846,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>1</v>
